--- a/biology/Zoologie/Cuora_galbinifrons/Cuora_galbinifrons.xlsx
+++ b/biology/Zoologie/Cuora_galbinifrons/Cuora_galbinifrons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuora galbinifrons ou Tortue-boîte à front jaune est une espèce de tortues de la famille des Geoemydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuora galbinifrons ou Tortue-boîte à front jaune est une espèce de tortues de la famille des Geoemydidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce ne se rencontre que dans quelques forêts montagneuses denses en Chine au Guangxi et à Hainan ainsi que dans les Annamites au Viêt Nam et au Laos[1]. Elle est en danger dans la nature.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce ne se rencontre que dans quelques forêts montagneuses denses en Chine au Guangxi et à Hainan ainsi que dans les Annamites au Viêt Nam et au Laos. Elle est en danger dans la nature.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une tortue boîte asiatique plutôt terrestre et chasseuse même si elle aime aller dans l'eau.
 La carapace de cette tortue atteint jusqu'à 20 cm de long et elle peut se fermer hermétiquement comme une boîte. Bien camouflée, elle se fond au milieu de la litière végétale.
@@ -574,9 +590,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tortue-boîte à front jaune est omnivore. Son régime alimentaire est composé de pousses de bambou, de fruits tombés sur le sol, de vers de terre et de carcasses d'animaux[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tortue-boîte à front jaune est omnivore. Son régime alimentaire est composé de pousses de bambou, de fruits tombés sur le sol, de vers de terre et de carcasses d'animaux.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuora galbinifrons pond 3 fois par an et dépose dans son nid de 1 à 3 œufs chaque fois[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuora galbinifrons pond 3 fois par an et dépose dans son nid de 1 à 3 œufs chaque fois.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bourret, 1939 : Notes herpétologiques sur l'Indochine française. XVIII. Reptiles et batraciens reçus au Laboratoire des Sciences Naturelles de l'Université au cours de l'année 1939. Descriptions de quatre espèces et d'une variété nouvelles. Bulletin Général de l'Instruction Publique, Hanoi, vol. 19, p. 5-39.</t>
         </is>
